--- a/第三反復/計画/WBSガントチャート_LV50(反復3).xlsx
+++ b/第三反復/計画/WBSガントチャート_LV50(反復3).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2468D3-8AB2-4786-8D03-859F9090024D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA6A562-8E02-477D-989E-3A386723EC3F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12576,10 +12576,10 @@
   <dimension ref="A1:Q113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P98" sqref="P98"/>
+      <selection pane="bottomRight" activeCell="P105" sqref="P105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -15916,7 +15916,7 @@
       <c r="J100" s="7"/>
       <c r="K100" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$101:K$112),2)=0)*K$101:K$112)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L100" s="37">
         <f>SUMPRODUCT((MOD(ROW(L$101:L$112),2)=0)*L$101:L$112)</f>
@@ -15936,7 +15936,7 @@
       </c>
       <c r="P100" s="37">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q100" s="37">
         <f t="shared" si="22"/>
@@ -16045,13 +16045,16 @@
       <c r="J104" s="56"/>
       <c r="K104" s="10">
         <f>SUM(L104:Q104)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L104" s="41"/>
       <c r="M104" s="32"/>
       <c r="N104" s="32"/>
       <c r="O104" s="32"/>
-      <c r="P104" s="32"/>
+      <c r="P104" s="32">
+        <f>0.25*5</f>
+        <v>1.25</v>
+      </c>
       <c r="Q104" s="32"/>
     </row>
     <row r="105" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
